--- a/MatchMoveConsolidate/Inputsheet2.xlsx
+++ b/MatchMoveConsolidate/Inputsheet2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrower/projects/just-VBA/MatchMoveConsolidate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D95C14E-1A29-D94C-BCD9-58CC83FB241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3594989-38DA-D440-AA1C-47F357F1EB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28320" yWindow="4100" windowWidth="27220" windowHeight="15120" activeTab="2" xr2:uid="{E4B1AFDB-9D25-DD46-A9DC-84EEF11C9041}"/>
+    <workbookView xWindow="22000" yWindow="8880" windowWidth="27220" windowHeight="15120" activeTab="4" xr2:uid="{E4B1AFDB-9D25-DD46-A9DC-84EEF11C9041}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanyA (1)" sheetId="1" r:id="rId1"/>
@@ -188,34 +188,7 @@
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
@@ -227,19 +200,46 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -282,8 +282,8 @@
     <tableColumn id="1" xr3:uid="{5B58897F-25DF-504E-A336-41287E655652}" name="Transaction">
       <calculatedColumnFormula>G1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5245D2E3-88D2-C041-A718-429271225906}" name="Transaction Date" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{CF83D1CF-B580-2949-9485-FCE4052D40CD}" name="Posted Date" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5245D2E3-88D2-C041-A718-429271225906}" name="Transaction Date" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{CF83D1CF-B580-2949-9485-FCE4052D40CD}" name="Posted Date" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{88FFB50E-282F-D44E-B136-4F2C76A4582E}" name="From Account"/>
     <tableColumn id="5" xr3:uid="{4470F29A-FADA-244B-91E1-F726192BFEF6}" name="To Account"/>
     <tableColumn id="6" xr3:uid="{AB2B827F-FDDC-C444-B8F9-BC4DE92B6868}" name="Transaction Description\Merchant Name"/>
@@ -299,14 +299,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5837E9B6-A98D-A04B-801A-241598675AF6}" name="Table13" displayName="Table13" ref="G1:R8" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5837E9B6-A98D-A04B-801A-241598675AF6}" name="Table13" displayName="Table13" ref="G1:R8" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="G1:R8" xr:uid="{5837E9B6-A98D-A04B-801A-241598675AF6}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3533C6EC-0520-244D-87E2-35A75F36DA3B}" name="Transaction">
       <calculatedColumnFormula>G1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2B9CACAF-DDF0-F442-A2C1-B5B8EB35FE39}" name="Transaction Date" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{B7C4D68F-9128-6146-A3BF-EDD3D4596427}" name="Posted Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2B9CACAF-DDF0-F442-A2C1-B5B8EB35FE39}" name="Transaction Date" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B7C4D68F-9128-6146-A3BF-EDD3D4596427}" name="Posted Date" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{E1E0E420-432F-4B40-B4FA-67F0077DD871}" name="From Account"/>
     <tableColumn id="5" xr3:uid="{62EA924D-05B1-FB48-B5AD-F616545441D9}" name="To Account"/>
     <tableColumn id="6" xr3:uid="{49757A9A-AB71-7B41-AD2D-2A19BBF1FEE6}" name="Transaction Description\Merchant Name"/>
@@ -322,14 +322,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B515F93-22A1-774F-A13F-CAB383CDDE02}" name="Table134" displayName="Table134" ref="G1:R8" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B515F93-22A1-774F-A13F-CAB383CDDE02}" name="Table134" displayName="Table134" ref="G1:R8" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="G1:R8" xr:uid="{6B515F93-22A1-774F-A13F-CAB383CDDE02}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{AA7EF73D-1918-2844-AA2C-B54A2A846D58}" name="Transaction">
       <calculatedColumnFormula>G1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5408390C-4CCD-CE4F-A290-8836BB6D2FBB}" name="Transaction Date" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A0524B6A-10DF-0F49-AEB9-21B3238610CD}" name="Posted Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5408390C-4CCD-CE4F-A290-8836BB6D2FBB}" name="Transaction Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{A0524B6A-10DF-0F49-AEB9-21B3238610CD}" name="Posted Date" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{28706551-7EAF-5642-A6A7-700B3E195D3A}" name="From Account"/>
     <tableColumn id="5" xr3:uid="{19DBC311-85BB-614E-828D-EE4031E29964}" name="To Account"/>
     <tableColumn id="6" xr3:uid="{26E56C7A-1EB7-6C4E-8B74-FC7D9E77D8FA}" name="Transaction Description\Merchant Name"/>
@@ -345,14 +345,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7801BEC7-2D1F-D746-8BD9-FCD67B966A53}" name="Table1345" displayName="Table1345" ref="G1:R8" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7801BEC7-2D1F-D746-8BD9-FCD67B966A53}" name="Table1345" displayName="Table1345" ref="G1:R8" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="G1:R8" xr:uid="{7801BEC7-2D1F-D746-8BD9-FCD67B966A53}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{9178BAC8-C136-6241-AA7C-78C9A7A541A0}" name="Transaction">
       <calculatedColumnFormula>G1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{88DFD892-DC0B-0C46-9B97-3D55A75D82D7}" name="Transaction Date" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{736A7E69-23AA-C84A-A290-C7622564F423}" name="Posted Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{88DFD892-DC0B-0C46-9B97-3D55A75D82D7}" name="Transaction Date" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{736A7E69-23AA-C84A-A290-C7622564F423}" name="Posted Date" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{58432AE2-5E8F-0445-BC83-8C4BE724C4A3}" name="From Account"/>
     <tableColumn id="5" xr3:uid="{D1A6B5A9-C3A1-7D47-8929-3FF01E860797}" name="To Account"/>
     <tableColumn id="6" xr3:uid="{BC9167D6-43C7-4D44-B8DF-A24618DF8D8F}" name="Transaction Description\Merchant Name"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6643A646-8746-144F-83BC-98DCECBA8510}" name="Table1346" displayName="Table1346" ref="G1:R8" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6643A646-8746-144F-83BC-98DCECBA8510}" name="Table1346" displayName="Table1346" ref="G1:R8" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="G1:R8" xr:uid="{6643A646-8746-144F-83BC-98DCECBA8510}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{67B906D7-63CA-9644-BFAC-B05F5E338251}" name="Transaction">
@@ -391,14 +391,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D270D41-8584-604C-904A-BC51F0275750}" name="Table1347" displayName="Table1347" ref="G1:R8" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D270D41-8584-604C-904A-BC51F0275750}" name="Table1347" displayName="Table1347" ref="G1:R8" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="G1:R8" xr:uid="{0D270D41-8584-604C-904A-BC51F0275750}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DC51265F-1D1D-504B-82DF-F60A43A4893A}" name="Transaction">
       <calculatedColumnFormula>G1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2ADA7650-0879-3A4E-833F-940EDD417EAC}" name="Transaction Date" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3EA2D884-DC7D-D044-A333-0076C6932F33}" name="Posted Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2ADA7650-0879-3A4E-833F-940EDD417EAC}" name="Transaction Date" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3EA2D884-DC7D-D044-A333-0076C6932F33}" name="Posted Date" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{D0B9B7CA-26F5-CF4E-A9D1-5AF4E944E3D9}" name="From Account"/>
     <tableColumn id="5" xr3:uid="{DE8417DC-126C-C542-BD72-60A7406FD54E}" name="To Account"/>
     <tableColumn id="6" xr3:uid="{A558FA9E-3CE9-A440-9D08-B599C4142735}" name="Transaction Description\Merchant Name"/>
@@ -414,14 +414,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51EBB241-FD2A-504D-9B19-31A7471E9391}" name="Table1348" displayName="Table1348" ref="G1:R8" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51EBB241-FD2A-504D-9B19-31A7471E9391}" name="Table1348" displayName="Table1348" ref="G1:R8" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="G1:R8" xr:uid="{51EBB241-FD2A-504D-9B19-31A7471E9391}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{30965AB2-A945-834A-A511-EC2E5AD71166}" name="Transaction">
       <calculatedColumnFormula>G1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{38013DE1-4794-844A-8E29-9D52235A0FEC}" name="Transaction Date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B14CD488-6CC5-1C4D-9FEB-299AE3FD9270}" name="Posted Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{38013DE1-4794-844A-8E29-9D52235A0FEC}" name="Transaction Date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B14CD488-6CC5-1C4D-9FEB-299AE3FD9270}" name="Posted Date" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{42142EA8-91C8-7E4E-B107-FFFAF4882B7F}" name="From Account"/>
     <tableColumn id="5" xr3:uid="{5340A40C-6201-694F-9AF1-89B9C9F9332F}" name="To Account"/>
     <tableColumn id="6" xr3:uid="{4FA1F5FD-7292-7849-A5D1-F9EC39FFDA2A}" name="Transaction Description\Merchant Name"/>
@@ -738,7 +738,7 @@
   </sheetPr>
   <dimension ref="G1:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:I8"/>
     </sheetView>
   </sheetViews>
@@ -1401,7 +1401,7 @@
   </sheetPr>
   <dimension ref="G1:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1733,7 +1733,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -1748,8 +1750,8 @@
   </sheetPr>
   <dimension ref="G1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
